--- a/test2.xlsx
+++ b/test2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20340"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User_Data\Desktop\test\csv-test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User_Data\Desktop\test\csv-test\excel-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{874C1EFA-6B2E-41D8-A43D-0848AAAB35E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB4243C-F55D-4DFF-B38F-9527EDBC64D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{29E728E8-875F-4885-B40E-E2F41F43BF5B}"/>
   </bookViews>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5A0B4F-9B97-4860-9ED8-52A15DD2D0A7}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -457,10 +457,21 @@
         <v>1004</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1005</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
